--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UiPath\RaryaJumiaSearchProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF16C4E-A0E0-4DD3-88EE-1F9F9B053156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782446A-2A77-49AB-9BB3-8A3DA840B3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3090" windowWidth="18000" windowHeight="9810" xr2:uid="{7A8F9DF8-C676-4464-9FEA-608D890C8465}"/>
+    <workbookView xWindow="6000" yWindow="3090" windowWidth="18000" windowHeight="9810" activeTab="1" xr2:uid="{7A8F9DF8-C676-4464-9FEA-608D890C8465}"/>
   </bookViews>
   <sheets>
     <sheet name="Jumia" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -98,132 +98,6 @@
     <t>EGP 953</t>
   </si>
   <si>
-    <t>Armor PVC Back Cover For Nokia 6 - Transparent</t>
-  </si>
-  <si>
-    <t>EGP31.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 1 Plus</t>
-  </si>
-  <si>
-    <t>EGP71.00</t>
-  </si>
-  <si>
-    <t>Armor Nano Glass anti broken Screen Protector for Nokia 6.1</t>
-  </si>
-  <si>
-    <t>EGP79.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti broken for Nokia C2</t>
-  </si>
-  <si>
-    <t>OZO Skins For Nokia 6.2, Vans Gary Stickers - SE142VGS</t>
-  </si>
-  <si>
-    <t>Ozo Skins For Nokia 6.2, Australian OAK Wood - SE154AOW</t>
-  </si>
-  <si>
-    <t>Ozo Skins For Nokia 6.2, Pharaonic Style - Se132ofs</t>
-  </si>
-  <si>
-    <t>Ozo Skins For Nokia 6.2, Black Pink Marble - SE130BPM</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 5</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia C2</t>
-  </si>
-  <si>
-    <t>EGP89.00</t>
-  </si>
-  <si>
-    <t>Armor Nano Glass anti broken Screen Protector for Nokia 7.2</t>
-  </si>
-  <si>
-    <t>EGP95.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 3</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 5.3</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Anti Broken For Mobile Nokia 5.4</t>
-  </si>
-  <si>
-    <t>armor Screen Nano Glass anti broken for Nokia 5.3</t>
-  </si>
-  <si>
-    <t>EGP99.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 1.4</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 7.1</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 7.2</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 6.2</t>
-  </si>
-  <si>
-    <t>EGP103.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 7.2</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 3.2</t>
-  </si>
-  <si>
-    <t>EGP111.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Glass anti Fingerprint Matte for Nokia 8</t>
-  </si>
-  <si>
-    <t>Armor Screen Nano Anti Blue Ray (Eye Guard) For Mobile Nokia 5.4</t>
-  </si>
-  <si>
-    <t>Armor Privacy Screen Protector For Nokia 5.4</t>
-  </si>
-  <si>
-    <t>EGP119.00</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 2.4</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 5.3</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 6</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 4In1 Features Nano Material For Nokia 6.1</t>
-  </si>
-  <si>
-    <t>Armor Screen Protector With 5In1 Features Nano Material, Anti Fingerprint For Nokia 1.4</t>
-  </si>
-  <si>
-    <t>Nokia 6.1 Plus/Nokia X6 3 In 1 Hard PC Case - Red</t>
-  </si>
-  <si>
-    <t>EGP 15</t>
-  </si>
-  <si>
-    <t>Nokia 3.4 - 6.39-inch 64GB/4GB Dual SIM Mobile Phone - Charcoal Grey</t>
-  </si>
-  <si>
-    <t>EGP 2,022</t>
-  </si>
-  <si>
     <t>Nokia 6300 4G – 2.4-inch 4G Dual SIM Mobile Phone - Charcoal</t>
   </si>
   <si>
@@ -252,6 +126,147 @@
   </si>
   <si>
     <t>Nokia 3.4 - 6.39-inch 64GB/4GB Dual SIM Mobile Phone - Dusk Purple</t>
+  </si>
+  <si>
+    <t>Fashion Tectores 5V 3.1A Mini Dual 2 Port USB Car Charger Adapter For Smart Mobile Cell Phone</t>
+  </si>
+  <si>
+    <t>EGP 35</t>
+  </si>
+  <si>
+    <t>Intake Manifold Carburetor Boot Fit For Yamaha YFM Bear</t>
+  </si>
+  <si>
+    <t>EGP 178</t>
+  </si>
+  <si>
+    <t>JBL Wireless In-Ear Neckband Headphones, Blue - LIVE200BT</t>
+  </si>
+  <si>
+    <t>EGP1.00</t>
+  </si>
+  <si>
+    <t>Wireless Bluetooth Headphones - Black - P47i</t>
+  </si>
+  <si>
+    <t>EGP115.00</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, White - TM-013</t>
+  </si>
+  <si>
+    <t>EGP124.00</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, Blue - TM-013</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, Purple - TM-013</t>
+  </si>
+  <si>
+    <t>P47 Wireless Bluetooth Headphones - White</t>
+  </si>
+  <si>
+    <t>EGP125.00</t>
+  </si>
+  <si>
+    <t>P47 Wireless Bluetooth Headphones - Blue</t>
+  </si>
+  <si>
+    <t>Wireless Headphone, Black - S460</t>
+  </si>
+  <si>
+    <t>EGP149.00</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, White - TM-010</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, Blue - TM-010</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, Red - TM-010</t>
+  </si>
+  <si>
+    <t>Bluetooth Wireless Headphone, Purple - TM-010</t>
+  </si>
+  <si>
+    <t>YISON E14 Wireless Magnetic Suction Sport Earphones - Green</t>
+  </si>
+  <si>
+    <t>EGP159.00</t>
+  </si>
+  <si>
+    <t>YISON E14 Wireless Magnetic Suction Sport Earphones - Red</t>
+  </si>
+  <si>
+    <t>Remax Wireless Single Headset HD, Red - RB-T22</t>
+  </si>
+  <si>
+    <t>EGP169.00</t>
+  </si>
+  <si>
+    <t>Remax Wireless Single Headset HD Sound Quality - White - RB-T22</t>
+  </si>
+  <si>
+    <t>Wireless Bluetooth Headphones, Purple - B460</t>
+  </si>
+  <si>
+    <t>EGP179.00</t>
+  </si>
+  <si>
+    <t>Ovleng ETTƎ S99 Wireless Stereo Headset HD Music - Blue</t>
+  </si>
+  <si>
+    <t>EGP189.00</t>
+  </si>
+  <si>
+    <t>WK Wireless Headset - Black - BS170</t>
+  </si>
+  <si>
+    <t>EGP199.00</t>
+  </si>
+  <si>
+    <t>Remax Wireless Single Headset, Black - RB-T26</t>
+  </si>
+  <si>
+    <t>EGP209.00</t>
+  </si>
+  <si>
+    <t>YISON E14 Wireless Magnetic Suction Sport Earphones - Black</t>
+  </si>
+  <si>
+    <t>EGP225.00</t>
+  </si>
+  <si>
+    <t>I-COO Wireless Bluetooth Earphone, Black - I-002</t>
+  </si>
+  <si>
+    <t>Super Bass Wireless Fold Headphones - Large Drive Unit - Gold - VJ-078</t>
+  </si>
+  <si>
+    <t>EGP239.00</t>
+  </si>
+  <si>
+    <t>Super Bass Wireless Fold Headphones - Large Drive Unit - Red - VJ-078</t>
+  </si>
+  <si>
+    <t>Celebrat A4 Wireless Bluetooth Headphone - Red</t>
+  </si>
+  <si>
+    <t>EGP249.00</t>
+  </si>
+  <si>
+    <t>Celebrat A4 Wireless Bluetooth Headphone - Black</t>
+  </si>
+  <si>
+    <t>Wireless Stereo Headphones With Led Marquee - Red - STN-18</t>
+  </si>
+  <si>
+    <t>SY Wireless Wired V5.0 Headphone - Red - BT1616</t>
+  </si>
+  <si>
+    <t>SODO Bluetooth 5 Dual Mode Wired And Wireless Headphone, Dark Gray - SD-1003</t>
   </si>
 </sst>
 </file>
@@ -619,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B070B9-4133-4AA8-9A97-79A27B945DA7}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B29"/>
     </sheetView>
   </sheetViews>
@@ -638,66 +653,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B092B5AC-D036-4181-B87E-BA5519C3C3E2}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -825,242 +840,242 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UiPath\RaryaJumiaSearchProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C761295-F849-43BF-BE85-5C20741B7CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB0D2C-0BD9-49CB-9667-D022C6580148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="3090" windowWidth="18000" windowHeight="9810" xr2:uid="{8CB9A855-0AEF-473F-A2AE-9E05C0CF9001}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -44,130 +44,193 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Fresh Microwave Oven 20 L, White - FMW-20MC-W</t>
-  </si>
-  <si>
-    <t>EGP1,437.00</t>
-  </si>
-  <si>
-    <t>Fresh Digital Microwave Oven, 28 Liter, 900 Watt, Black - 500005202</t>
-  </si>
-  <si>
-    <t>EGP2,099.00</t>
-  </si>
-  <si>
-    <t>Fresh Microwave Oven With Grill, 25 Liters, 700 Watt, Silver - FMW-25KCG-S</t>
-  </si>
-  <si>
-    <t>EGP2,100.00</t>
-  </si>
-  <si>
-    <t>EGP2,193.00</t>
-  </si>
-  <si>
-    <t>Fresh Microwave Oven, 28 Liters, 900 Watt- FMW-28ECB</t>
-  </si>
-  <si>
-    <t>EGP2,200.00</t>
-  </si>
-  <si>
-    <t>EGP2,400.00</t>
-  </si>
-  <si>
-    <t>Black &amp; Decker Solo Microwave Oven, 20 Liters, 700 Watt, Black - MZ2010P-B5</t>
-  </si>
-  <si>
-    <t>EGP2,475.00</t>
-  </si>
-  <si>
-    <t>EGP2,500.00</t>
-  </si>
-  <si>
-    <t>Black &amp; Decker Digital Microwave Oven With Grill, 30 Liters, 1000 Watt, Silver - MZ3000PG</t>
-  </si>
-  <si>
-    <t>EGP2,995.00</t>
-  </si>
-  <si>
-    <t>Fresh Microwave oven 42 L FMW-42KC-S</t>
-  </si>
-  <si>
-    <t>EGP3,070.00</t>
-  </si>
-  <si>
-    <t>Black &amp; Decker Digital Microwave Oven With Grill, 30 Liters, 1000 Watt, Silver - MZ3000PG-B5</t>
-  </si>
-  <si>
-    <t>EGP3,099.00</t>
-  </si>
-  <si>
-    <t>EGP3,150.00</t>
-  </si>
-  <si>
-    <t>Samsung Microwave Oven With Grill, 40 Liters, 950 Watt, Mirror - MG402MADXBB/GY</t>
-  </si>
-  <si>
-    <t>EGP3,549.00</t>
-  </si>
-  <si>
-    <t>Samsung Solo Microwave Oven, 34 Liters, 1000 Watt, Silver - ME6124ST/EGY</t>
-  </si>
-  <si>
-    <t>EGP3,850.00</t>
-  </si>
-  <si>
-    <t>EGP3,955.00</t>
-  </si>
-  <si>
-    <t>EGP3,990.00</t>
-  </si>
-  <si>
-    <t>Samsung Microwave Oven With Grill, 40 Liters, 900 Watt, Black- GE614ST/EGY</t>
-  </si>
-  <si>
-    <t>EGP4,149.00</t>
-  </si>
-  <si>
-    <t>Samsung Microwave Oven With Grill, 40 Liters, 900 Watt, Black - GE614ST/EGY</t>
-  </si>
-  <si>
-    <t>EGP4,280.00</t>
-  </si>
-  <si>
-    <t>EGP4,299.00</t>
-  </si>
-  <si>
-    <t>LG NeoChef Microwave Oven With Grill, 42 Liter,1200 Watt, Silver - MH8265CIS</t>
-  </si>
-  <si>
-    <t>EGP5,150.00</t>
-  </si>
-  <si>
-    <t>Angry-Mama Microwave Oven Steam Cleaner</t>
-  </si>
-  <si>
-    <t>EGP 44</t>
-  </si>
-  <si>
-    <t>Angry Mama Microwave Cleaner Easily Cleans Microwave Oven Steam Cleaner Appliances For The Kitchen Refrigerator Cleaning</t>
-  </si>
-  <si>
-    <t>EGP 77</t>
-  </si>
-  <si>
-    <t>Microwave Oven Gloves Kitchen Thermal Insulation Anti Slip</t>
-  </si>
-  <si>
-    <t>EGP 86</t>
-  </si>
-  <si>
-    <t>EGP 88</t>
-  </si>
-  <si>
-    <t>HOVER COVER Microwave Hover Cover Overflow Cover Plastic Cover Microwave Splash Cover Opp</t>
-  </si>
-  <si>
-    <t>EGP 100</t>
+    <t>Devia Screen Protector Intelligent Screen Antibacterial for Samsung Galaxy Note 20 Ultra - Clear</t>
+  </si>
+  <si>
+    <t>EGP60.00</t>
+  </si>
+  <si>
+    <t>Baseus Type-C Cable Fast Charging, 1 Meter, 3mAh, For Samsung Galaxy Note 20 Ultra - White</t>
+  </si>
+  <si>
+    <t>EGP69.00</t>
+  </si>
+  <si>
+    <t>Ozo Skins Tropical Flamingo Pink For Samsung Galaxy Note 20 Ultra - SE163TFP</t>
+  </si>
+  <si>
+    <t>EGP79.00</t>
+  </si>
+  <si>
+    <t>Ozo Skins ِAl-Ahly SC For Samsung Galaxy Note 20 Ultra - SE114ASC</t>
+  </si>
+  <si>
+    <t>EGP158.00</t>
+  </si>
+  <si>
+    <t>Ozo Skins Black Pink Marble For Samsung Galaxy Note 20 Ultra - SE114ASC</t>
+  </si>
+  <si>
+    <t>Anank Glass 3D Screen Protector For Samsung Galaxy Note20 Ultra</t>
+  </si>
+  <si>
+    <t>EGP280.00</t>
+  </si>
+  <si>
+    <t>Armor Screen Easy Full body for Samsung Galaxy Note 20 Ultra</t>
+  </si>
+  <si>
+    <t>EGP299.00</t>
+  </si>
+  <si>
+    <t>Samsung Protective Cover For Samsung Galaxy Note 20 Ultra - Clear Black</t>
+  </si>
+  <si>
+    <t>EGP796.00</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20 Ultra Dual SIM, 256GB, 8GB RAM, 4G LTE, Black</t>
+  </si>
+  <si>
+    <t>EGP16,348.00</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20 Ultra Dual SIM, 256GB, 8GB RAM, 4G LTE , Mystic Black</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20 Ultra Dual SIM, 256GB, 8GB RAM, 4G LTE, Mystic Black</t>
+  </si>
+  <si>
+    <t>EGP16,666.00</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20 Ultra Dual SIM, 256GB, 8GB RAM, 4G LTE, Mystic Bronze</t>
+  </si>
+  <si>
+    <t>EGP17,000.00</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20 Ultra Dual SIM, 256GB, 8GB RAM, 4G LTE, Mystic White</t>
+  </si>
+  <si>
+    <t>EGP17,777.00</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra TPU Case(Transparent)</t>
+  </si>
+  <si>
+    <t>EGP 34</t>
+  </si>
+  <si>
+    <t>For Galaxy Note20 Ultra TPU Case(Transparent)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Green)</t>
+  </si>
+  <si>
+    <t>EGP 39</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Wishing Bottle)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Yellow)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Rose Gold)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Gold)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Red)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Blue)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Moon)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Cat)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Gold Butterflies)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Eagle)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Black)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Red)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Five Hands)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Four-Corner Anti-Drop Ultra-Thin TPU Case(Transparent)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Elk)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Black)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Purple)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Lotus Pond)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Blue)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Silver)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Star Unicorn)</t>
+  </si>
+  <si>
+    <t>EGP 49</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Deer Head)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Butterfly)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Rubbish)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra TPU + Acrylic Luxury Plating Mirror Phone Case Cover(Gold)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Owl)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Skin Hand Feeling Series Shockproof Frosted PC+ TPU Protective Case(Black)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Black Wind Chimes)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Rose Flower)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Case With Card Slots &amp; Holder &amp; Lanyard(Black)</t>
+  </si>
+  <si>
+    <t>EGP 99</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra Multi-functional Cross-body Card Bag TPU+PU Back Cover Case(Rose Gold)</t>
+  </si>
+  <si>
+    <t>EGP 199</t>
   </si>
 </sst>
 </file>
@@ -183,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,11 +290,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,61 +610,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FAC7BA-3F3D-434A-B5D5-B76D1966104F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="54.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -604,13 +907,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3919F9-1DC7-4A82-A030-0CEC2802754B}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="61" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,10 +926,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -647,55 +951,55 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -703,90 +1007,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UiPath\RaryaJumiaSearchProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB0D2C-0BD9-49CB-9667-D022C6580148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4FCC1A-31B9-475D-A24A-CFFDBE9C3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="3090" windowWidth="18000" windowHeight="9810" xr2:uid="{8CB9A855-0AEF-473F-A2AE-9E05C0CF9001}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -134,18 +134,18 @@
     <t>For Samsung Galaxy Note20 Ultra Painted Pattern Soft TPU Case(Wishing Bottle)</t>
   </si>
   <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Rose Gold)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Red)</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Gold)</t>
+  </si>
+  <si>
     <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Yellow)</t>
   </si>
   <si>
-    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Rose Gold)</t>
-  </si>
-  <si>
-    <t>For Samsung Galaxy Note20 Ultra-thin Plating TPU Protective Soft Case(Gold)</t>
-  </si>
-  <si>
-    <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Red)</t>
-  </si>
-  <si>
     <t>For Samsung Galaxy Note20 Ultra IMAK UC-2 Series Shockproof Full Coverage Soft TPU Case(Blue)</t>
   </si>
   <si>
@@ -221,10 +221,16 @@
     <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Rose Flower)</t>
   </si>
   <si>
-    <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Case With Card Slots &amp; Holder &amp; Lanyard(Black)</t>
+    <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Cases(Pink)</t>
   </si>
   <si>
     <t>EGP 99</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note20 Ultra PC +TPU + Metal Shockproof Protective Case With Ring Holder(Black)</t>
+  </si>
+  <si>
+    <t>EGP 89</t>
   </si>
   <si>
     <t>For Samsung Galaxy Note20 Ultra Multi-functional Cross-body Card Bag TPU+PU Back Cover Case(Rose Gold)</t>
@@ -610,13 +616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FAC7BA-3F3D-434A-B5D5-B76D1966104F}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="92.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -893,11 +899,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -909,12 +923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3919F9-1DC7-4A82-A030-0CEC2802754B}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="97.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UiPath\RaryaJumiaSearchProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4FCC1A-31B9-475D-A24A-CFFDBE9C3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3467F0D4-FE55-4F24-B60A-9F7C4FEB3E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="3090" windowWidth="18000" windowHeight="9810" xr2:uid="{8CB9A855-0AEF-473F-A2AE-9E05C0CF9001}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -221,22 +221,25 @@
     <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Rose Flower)</t>
   </si>
   <si>
+    <t>For Samsung Galaxy Note20 Ultra Shockproof Painted Transparent TPU Protective Case(Dreamcatcher)</t>
+  </si>
+  <si>
+    <t>EGP 69</t>
+  </si>
+  <si>
+    <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Case With Card Slots &amp; Holder &amp; Lanyard(Black)</t>
+  </si>
+  <si>
+    <t>EGP 99</t>
+  </si>
+  <si>
     <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Cases(Pink)</t>
   </si>
   <si>
-    <t>EGP 99</t>
-  </si>
-  <si>
     <t>For Samsung Galaxy Note20 Ultra PC +TPU + Metal Shockproof Protective Case With Ring Holder(Black)</t>
   </si>
   <si>
     <t>EGP 89</t>
-  </si>
-  <si>
-    <t>For Samsung Galaxy Note20 Ultra Multi-functional Cross-body Card Bag TPU+PU Back Cover Case(Rose Gold)</t>
-  </si>
-  <si>
-    <t>EGP 199</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FAC7BA-3F3D-434A-B5D5-B76D1966104F}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,11 +910,19 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UiPath\RaryaJumiaSearchProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3467F0D4-FE55-4F24-B60A-9F7C4FEB3E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DE3979-9060-46ED-B92D-7F70DADAB275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="3090" windowWidth="18000" windowHeight="9810" xr2:uid="{8CB9A855-0AEF-473F-A2AE-9E05C0CF9001}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Ozo Skins Black Pink Marble For Samsung Galaxy Note 20 Ultra - SE114ASC</t>
   </si>
   <si>
-    <t>Anank Glass 3D Screen Protector For Samsung Galaxy Note20 Ultra</t>
-  </si>
-  <si>
-    <t>EGP280.00</t>
-  </si>
-  <si>
     <t>Armor Screen Easy Full body for Samsung Galaxy Note 20 Ultra</t>
   </si>
   <si>
@@ -221,25 +215,16 @@
     <t>For Samsung Galaxy Note20 Ultra Luminous TPU Soft Protective Case(Rose Flower)</t>
   </si>
   <si>
-    <t>For Samsung Galaxy Note20 Ultra Shockproof Painted Transparent TPU Protective Case(Dreamcatcher)</t>
-  </si>
-  <si>
-    <t>EGP 69</t>
-  </si>
-  <si>
-    <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Case With Card Slots &amp; Holder &amp; Lanyard(Black)</t>
-  </si>
-  <si>
-    <t>EGP 99</t>
-  </si>
-  <si>
-    <t>For Samsung Galaxy Note 20 Ultra Glitter Powder Horizontal Flip Leather Cases(Pink)</t>
-  </si>
-  <si>
-    <t>For Samsung Galaxy Note20 Ultra PC +TPU + Metal Shockproof Protective Case With Ring Holder(Black)</t>
+    <t>For Samsung Galaxy Note20 Ultra Lace Flower Horizontal Flip Leather Case With Holder &amp; Card Slots &amp; Wallet &amp; Photo Frame(Rose Gold)</t>
   </si>
   <si>
     <t>EGP 89</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 20 Ultra Case With Full Cover Film - Black</t>
+  </si>
+  <si>
+    <t>EGP 125</t>
   </si>
 </sst>
 </file>
@@ -619,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FAC7BA-3F3D-434A-B5D5-B76D1966104F}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,290 +624,274 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3919F9-1DC7-4A82-A030-0CEC2802754B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -1021,15 +990,15 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,19 +1010,11 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
